--- a/word_features/季/ENG,2020-7~2020-10,文档_主题矩阵.xlsx
+++ b/word_features/季/ENG,2020-7~2020-10,文档_主题矩阵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>主题1</t>
   </si>
@@ -62,6 +62,777 @@
   </si>
   <si>
     <t>疫苗/4513.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4274.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4512.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4506.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4260.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4248.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4499.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4300.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4466.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4472.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4314.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4328.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4102.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4116.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4128.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4100.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4114.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4458.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4464.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4302.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4316.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4470.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4538.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4510.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4276.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4262.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4504.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4289.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4288.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4263.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4505.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4511.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4539.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4317.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4471.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4465.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4303.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4459.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4115.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4101.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4129.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4105.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4111.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4139.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4307.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4461.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4475.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4313.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4449.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4273.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4515.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4501.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4267.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4529.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4298.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4299.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4528.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4500.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4266.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4272.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4514.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4448.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4474.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4312.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4306.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4460.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4138.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4110.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4104.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4112.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4106.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4310.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4476.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4462.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4304.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4338.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4489.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4264.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4502.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4516.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4270.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4258.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4099.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4098.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4259.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4517.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4271.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4265.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4503.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4488.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4339.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4463.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4305.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4311.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4477.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4107.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4113.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4148.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4174.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4160.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4438.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4376.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4410.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4404.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4362.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4389.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4558.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4202.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4564.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4216.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4217.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4203.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4559.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4388.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4405.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4363.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4377.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4411.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4439.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4161.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4175.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4149.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4163.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4177.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4188.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4349.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4361.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4407.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4413.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4375.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4229.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4215.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4201.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4200.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4214.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4228.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4412.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4374.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4360.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4406.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4348.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4189.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4176.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4162.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4166.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4172.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4199.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4402.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4364.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4370.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4416.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4358.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4210.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4204.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4562.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4238.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4239.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4205.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4563.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4211.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4359.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4371.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4417.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4403.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4365.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4198.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4173.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4167.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4171.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4165.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4159.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4415.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4373.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4367.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4401.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4429.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4398.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4561.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4207.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4213.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4549.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4548.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4212.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4560.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4206.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4399.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4428.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4366.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4400.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4414.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4372.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4158.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4164.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4170.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4169.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4155.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4141.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4196.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4182.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4419.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4357.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4431.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4425.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4343.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4394.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4380.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4223.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4545.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4551.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4237.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4550.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4236.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4222.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4544.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4381.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4395.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4424.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4342.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4356.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4430.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4418.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4183.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4197.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4140.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4154.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4168.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4142.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4156.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4181.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4195.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4368.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4340.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4426.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4432.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4354.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4383.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4397.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4208.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4234.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4552.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4546.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4220.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4547.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4221.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4235.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4553.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4209.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4396.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4382.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4433.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4355.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4341.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4427.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4369.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4194.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4180.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4157.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4143.txt</t>
   </si>
 </sst>
 </file>
@@ -419,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +1212,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01384083537812568</v>
+        <v>0.1670039566069445</v>
       </c>
       <c r="C2">
-        <v>0.013099502611428</v>
+        <v>0.1685797730528127</v>
       </c>
       <c r="D2">
-        <v>0.9730596620104464</v>
+        <v>0.6644162703402428</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +1226,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9964196602389493</v>
+        <v>0.3018079485188168</v>
       </c>
       <c r="C3">
-        <v>0.00174583295001924</v>
+        <v>0.01054678912804239</v>
       </c>
       <c r="D3">
-        <v>0.001834506811031439</v>
+        <v>0.6876452623531408</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +1240,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.00469030162429149</v>
+        <v>0.02679925379057849</v>
       </c>
       <c r="C4">
-        <v>0.004541650974978766</v>
+        <v>0.02894617139108052</v>
       </c>
       <c r="D4">
-        <v>0.9907680474007298</v>
+        <v>0.944254574818341</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +1254,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.9947054751238206</v>
+        <v>0.4738676340471589</v>
       </c>
       <c r="C5">
-        <v>0.00247329780480841</v>
+        <v>0.5052226070598184</v>
       </c>
       <c r="D5">
-        <v>0.002821227071370849</v>
+        <v>0.02090975889302267</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,13 +1268,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.980786182391119</v>
+        <v>0.03400276871536224</v>
       </c>
       <c r="C6">
-        <v>0.008862324385982428</v>
+        <v>0.9259616910451437</v>
       </c>
       <c r="D6">
-        <v>0.01035149322289843</v>
+        <v>0.04003554023949391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.003287546504098458</v>
+        <v>0.01788189379439794</v>
       </c>
       <c r="C7">
-        <v>0.003240371194338909</v>
+        <v>0.4210620489334012</v>
       </c>
       <c r="D7">
-        <v>0.9934720823015626</v>
+        <v>0.5610560572722009</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,13 +1296,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9687015281620727</v>
+        <v>0.2410329698524561</v>
       </c>
       <c r="C8">
-        <v>0.01481060695312242</v>
+        <v>0.06800137836469107</v>
       </c>
       <c r="D8">
-        <v>0.01648786488480491</v>
+        <v>0.6909656517828529</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -539,13 +1310,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9776646763759275</v>
+        <v>0.1670039566069445</v>
       </c>
       <c r="C9">
-        <v>0.01121369915058265</v>
+        <v>0.1685797730528127</v>
       </c>
       <c r="D9">
-        <v>0.0111216244734899</v>
+        <v>0.6644162703402428</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,13 +1324,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004435083871292001</v>
+        <v>0.0260679612767298</v>
       </c>
       <c r="C10">
-        <v>0.004118068480222258</v>
+        <v>0.02828163086815653</v>
       </c>
       <c r="D10">
-        <v>0.9914468476484858</v>
+        <v>0.9456504078551137</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -567,13 +1338,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003290746180219832</v>
+        <v>0.0708397380802475</v>
       </c>
       <c r="C11">
-        <v>0.00309431311979085</v>
+        <v>0.4035809550057061</v>
       </c>
       <c r="D11">
-        <v>0.9936149406999892</v>
+        <v>0.5255793069140463</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -581,13 +1352,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.003358612637433385</v>
+        <v>0.004117168048257455</v>
       </c>
       <c r="C12">
-        <v>0.003146861273659733</v>
+        <v>0.07923349703024123</v>
       </c>
       <c r="D12">
-        <v>0.9934945260889069</v>
+        <v>0.9166493349215014</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -595,13 +1366,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.005803630214118503</v>
+        <v>0.007592466662205925</v>
       </c>
       <c r="C13">
-        <v>0.005355130594062888</v>
+        <v>0.5464292734465674</v>
       </c>
       <c r="D13">
-        <v>0.9888412391918187</v>
+        <v>0.4459782598912266</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -609,13 +1380,3611 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.9955207064717121</v>
+        <v>0.0159815932531468</v>
       </c>
       <c r="C14">
-        <v>0.002147839467738801</v>
+        <v>0.01548277303055288</v>
       </c>
       <c r="D14">
-        <v>0.002331454060549056</v>
+        <v>0.9685356337163004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.02973287357855158</v>
+      </c>
+      <c r="C15">
+        <v>0.5777028921930452</v>
+      </c>
+      <c r="D15">
+        <v>0.3925642342284033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.3350516824724954</v>
+      </c>
+      <c r="C16">
+        <v>0.03673774070383325</v>
+      </c>
+      <c r="D16">
+        <v>0.6282105768236714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.3350516824724954</v>
+      </c>
+      <c r="C17">
+        <v>0.03673774070383325</v>
+      </c>
+      <c r="D17">
+        <v>0.6282105768236714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.004584641955252825</v>
+      </c>
+      <c r="C18">
+        <v>0.5789850883899202</v>
+      </c>
+      <c r="D18">
+        <v>0.4164302696548269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.01063126927915485</v>
+      </c>
+      <c r="C19">
+        <v>0.7735111753405786</v>
+      </c>
+      <c r="D19">
+        <v>0.2158575553802665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.05703239897125462</v>
+      </c>
+      <c r="C20">
+        <v>0.05809501652583086</v>
+      </c>
+      <c r="D20">
+        <v>0.8848725845029145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.008261530886418129</v>
+      </c>
+      <c r="C21">
+        <v>0.008392736773962978</v>
+      </c>
+      <c r="D21">
+        <v>0.9833457323396189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.01409600747685459</v>
+      </c>
+      <c r="C22">
+        <v>0.9685409016426484</v>
+      </c>
+      <c r="D22">
+        <v>0.017363090880497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.008832538733673836</v>
+      </c>
+      <c r="C23">
+        <v>0.5153929836024185</v>
+      </c>
+      <c r="D23">
+        <v>0.4757744776639077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.2272138815107959</v>
+      </c>
+      <c r="C24">
+        <v>0.0178216738043675</v>
+      </c>
+      <c r="D24">
+        <v>0.7549644446848366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.2182277477989139</v>
+      </c>
+      <c r="C25">
+        <v>0.01679023938355945</v>
+      </c>
+      <c r="D25">
+        <v>0.7649820128175266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.0558064026100331</v>
+      </c>
+      <c r="C26">
+        <v>0.05553785725192861</v>
+      </c>
+      <c r="D26">
+        <v>0.8886557401380384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.03367185023874442</v>
+      </c>
+      <c r="C27">
+        <v>0.5868783356899623</v>
+      </c>
+      <c r="D27">
+        <v>0.3794498140712932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.08348887827892498</v>
+      </c>
+      <c r="C28">
+        <v>0.08421555978207508</v>
+      </c>
+      <c r="D28">
+        <v>0.832295561939</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.008644039389152093</v>
+      </c>
+      <c r="C29">
+        <v>0.07133041709129571</v>
+      </c>
+      <c r="D29">
+        <v>0.9200255435195521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.005729587607557132</v>
+      </c>
+      <c r="C30">
+        <v>0.1151135352690131</v>
+      </c>
+      <c r="D30">
+        <v>0.8791568771234298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.02959170405409838</v>
+      </c>
+      <c r="C31">
+        <v>0.4878985577577621</v>
+      </c>
+      <c r="D31">
+        <v>0.4825097381881396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.03801702795909778</v>
+      </c>
+      <c r="C32">
+        <v>0.7293293171531657</v>
+      </c>
+      <c r="D32">
+        <v>0.2326536548877365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.009060702029119499</v>
+      </c>
+      <c r="C33">
+        <v>0.01060943558549762</v>
+      </c>
+      <c r="D33">
+        <v>0.980329862385383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.1676979378588725</v>
+      </c>
+      <c r="C34">
+        <v>0.1718381525581519</v>
+      </c>
+      <c r="D34">
+        <v>0.6604639095829756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.2153811696588669</v>
+      </c>
+      <c r="C35">
+        <v>0.05159184962432512</v>
+      </c>
+      <c r="D35">
+        <v>0.7330269807168081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.03557207029620015</v>
+      </c>
+      <c r="C36">
+        <v>0.03055938775675609</v>
+      </c>
+      <c r="D36">
+        <v>0.9338685419470438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.01304722348249208</v>
+      </c>
+      <c r="C37">
+        <v>0.438701631004256</v>
+      </c>
+      <c r="D37">
+        <v>0.5482511455132519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0.02636200302871589</v>
+      </c>
+      <c r="C38">
+        <v>0.03006980336410769</v>
+      </c>
+      <c r="D38">
+        <v>0.9435681936071764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0.002977828919893517</v>
+      </c>
+      <c r="C39">
+        <v>0.6422048951076289</v>
+      </c>
+      <c r="D39">
+        <v>0.3548172759724775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0.0507933960816646</v>
+      </c>
+      <c r="C40">
+        <v>0.05681973695455207</v>
+      </c>
+      <c r="D40">
+        <v>0.8923868669637833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.164308556517358</v>
+      </c>
+      <c r="C41">
+        <v>0.01948292674196014</v>
+      </c>
+      <c r="D41">
+        <v>0.8162085167406818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0.897070800843642</v>
+      </c>
+      <c r="C42">
+        <v>0.05369343592361517</v>
+      </c>
+      <c r="D42">
+        <v>0.04923576323274284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0.00684205538949384</v>
+      </c>
+      <c r="C43">
+        <v>0.3530733969497609</v>
+      </c>
+      <c r="D43">
+        <v>0.6400845476607453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0.02897709382813772</v>
+      </c>
+      <c r="C44">
+        <v>0.02894728893081635</v>
+      </c>
+      <c r="D44">
+        <v>0.9420756172410459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0.5224468010441483</v>
+      </c>
+      <c r="C45">
+        <v>0.05456746218119345</v>
+      </c>
+      <c r="D45">
+        <v>0.4229857367746582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0.01129870420923284</v>
+      </c>
+      <c r="C46">
+        <v>0.7454545373500654</v>
+      </c>
+      <c r="D46">
+        <v>0.2432467584407018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>0.7030720419664349</v>
+      </c>
+      <c r="C47">
+        <v>0.05034573399496457</v>
+      </c>
+      <c r="D47">
+        <v>0.2465822240386005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0.03382778530260934</v>
+      </c>
+      <c r="C48">
+        <v>0.03651937525068245</v>
+      </c>
+      <c r="D48">
+        <v>0.9296528394467082</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0.2736630070858941</v>
+      </c>
+      <c r="C49">
+        <v>0.1230088270421619</v>
+      </c>
+      <c r="D49">
+        <v>0.603328165871944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0.1602409068265516</v>
+      </c>
+      <c r="C50">
+        <v>0.129588703361753</v>
+      </c>
+      <c r="D50">
+        <v>0.7101703898116953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>0.05434786387835436</v>
+      </c>
+      <c r="C51">
+        <v>0.05194250274315181</v>
+      </c>
+      <c r="D51">
+        <v>0.8937096333784939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>0.7620922643244779</v>
+      </c>
+      <c r="C52">
+        <v>0.02915035533623918</v>
+      </c>
+      <c r="D52">
+        <v>0.2087573803392829</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>0.005469450504778204</v>
+      </c>
+      <c r="C53">
+        <v>0.005948025517074026</v>
+      </c>
+      <c r="D53">
+        <v>0.9885825239781477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.02386075381379491</v>
+      </c>
+      <c r="C54">
+        <v>0.2816816128290152</v>
+      </c>
+      <c r="D54">
+        <v>0.69445763335719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.02313676459331954</v>
+      </c>
+      <c r="C55">
+        <v>0.02446318991277356</v>
+      </c>
+      <c r="D55">
+        <v>0.9524000454939069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0.8388032235644668</v>
+      </c>
+      <c r="C56">
+        <v>0.06928966193435562</v>
+      </c>
+      <c r="D56">
+        <v>0.09190711450117764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>0.7306465179206157</v>
+      </c>
+      <c r="C57">
+        <v>0.03852736947824609</v>
+      </c>
+      <c r="D57">
+        <v>0.2308261126011382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>0.266362236343236</v>
+      </c>
+      <c r="C58">
+        <v>0.7137376162475816</v>
+      </c>
+      <c r="D58">
+        <v>0.01990014740918234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0.7312035826138108</v>
+      </c>
+      <c r="C59">
+        <v>0.115546055814815</v>
+      </c>
+      <c r="D59">
+        <v>0.1532503615713741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>0.03456910301995974</v>
+      </c>
+      <c r="C60">
+        <v>0.03628422294729798</v>
+      </c>
+      <c r="D60">
+        <v>0.9291466740327422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0.004487132809664253</v>
+      </c>
+      <c r="C61">
+        <v>0.8783383244212071</v>
+      </c>
+      <c r="D61">
+        <v>0.1171745427691286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0.107199224029036</v>
+      </c>
+      <c r="C62">
+        <v>0.08422534226158855</v>
+      </c>
+      <c r="D62">
+        <v>0.8085754337093755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.1263397187892264</v>
+      </c>
+      <c r="C63">
+        <v>0.1209463749344683</v>
+      </c>
+      <c r="D63">
+        <v>0.7527139062763053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0.1342332413170081</v>
+      </c>
+      <c r="C64">
+        <v>0.1513564240796967</v>
+      </c>
+      <c r="D64">
+        <v>0.7144103346032953</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0.04918797853362048</v>
+      </c>
+      <c r="C65">
+        <v>0.05011280358244249</v>
+      </c>
+      <c r="D65">
+        <v>0.900699217883937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0.02720487777908671</v>
+      </c>
+      <c r="C66">
+        <v>0.4033593202414073</v>
+      </c>
+      <c r="D66">
+        <v>0.5694358019795059</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>0.02396301989663558</v>
+      </c>
+      <c r="C67">
+        <v>0.02602570173842576</v>
+      </c>
+      <c r="D67">
+        <v>0.9500112783649386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>0.0384828395569508</v>
+      </c>
+      <c r="C68">
+        <v>0.4566544900585994</v>
+      </c>
+      <c r="D68">
+        <v>0.5048626703844499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>0.02942012766330121</v>
+      </c>
+      <c r="C69">
+        <v>0.02766217687255481</v>
+      </c>
+      <c r="D69">
+        <v>0.9429176954641439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>0.01191577404638277</v>
+      </c>
+      <c r="C70">
+        <v>0.6379463845788963</v>
+      </c>
+      <c r="D70">
+        <v>0.350137841374721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>0.05314685599278934</v>
+      </c>
+      <c r="C71">
+        <v>0.05091820997742913</v>
+      </c>
+      <c r="D71">
+        <v>0.8959349340297815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C72">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D72">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>0.04931414617581645</v>
+      </c>
+      <c r="C73">
+        <v>0.05311995299968744</v>
+      </c>
+      <c r="D73">
+        <v>0.8975659008244962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0.003966614664292965</v>
+      </c>
+      <c r="C74">
+        <v>0.6104679613734924</v>
+      </c>
+      <c r="D74">
+        <v>0.3855654239622146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0.01636536891899792</v>
+      </c>
+      <c r="C75">
+        <v>0.6075838746625044</v>
+      </c>
+      <c r="D75">
+        <v>0.3760507564184976</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0.04433450148945729</v>
+      </c>
+      <c r="C76">
+        <v>0.4942468254291231</v>
+      </c>
+      <c r="D76">
+        <v>0.4614186730814195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>0.06870017451066493</v>
+      </c>
+      <c r="C77">
+        <v>0.1029944028393882</v>
+      </c>
+      <c r="D77">
+        <v>0.8283054226499469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C78">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D78">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>0.1716931123006215</v>
+      </c>
+      <c r="C79">
+        <v>0.1261942478631702</v>
+      </c>
+      <c r="D79">
+        <v>0.7021126398362081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>0.6580773351416657</v>
+      </c>
+      <c r="C80">
+        <v>0.03035287311129837</v>
+      </c>
+      <c r="D80">
+        <v>0.311569791747036</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>0.1788563418708563</v>
+      </c>
+      <c r="C81">
+        <v>0.111032429908805</v>
+      </c>
+      <c r="D81">
+        <v>0.7101112282203388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>0.09474335259813474</v>
+      </c>
+      <c r="C82">
+        <v>0.09105557874723991</v>
+      </c>
+      <c r="D82">
+        <v>0.8142010686546254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>0.6796499971626622</v>
+      </c>
+      <c r="C83">
+        <v>0.03201066682318833</v>
+      </c>
+      <c r="D83">
+        <v>0.2883393360141496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>0.6571675249838779</v>
+      </c>
+      <c r="C84">
+        <v>0.04398456797397195</v>
+      </c>
+      <c r="D84">
+        <v>0.2988479070421503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>0.09840141184330628</v>
+      </c>
+      <c r="C85">
+        <v>0.08371770118336207</v>
+      </c>
+      <c r="D85">
+        <v>0.8178808869733316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>0.03113120641997832</v>
+      </c>
+      <c r="C86">
+        <v>0.0332869790846702</v>
+      </c>
+      <c r="D86">
+        <v>0.9355818144953514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>0.07032157042378789</v>
+      </c>
+      <c r="C87">
+        <v>0.06907761447262013</v>
+      </c>
+      <c r="D87">
+        <v>0.8606008151035921</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>0.03255166084063431</v>
+      </c>
+      <c r="C88">
+        <v>0.03682227223497859</v>
+      </c>
+      <c r="D88">
+        <v>0.9306260669243872</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>0.001800759581111609</v>
+      </c>
+      <c r="C89">
+        <v>0.9964456962429669</v>
+      </c>
+      <c r="D89">
+        <v>0.001753544175921548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>0.04828654091793115</v>
+      </c>
+      <c r="C90">
+        <v>0.04910182142948706</v>
+      </c>
+      <c r="D90">
+        <v>0.9026116376525818</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>0.0516648504038445</v>
+      </c>
+      <c r="C91">
+        <v>0.05491050276841406</v>
+      </c>
+      <c r="D91">
+        <v>0.8934246468277415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0.005089464049753679</v>
+      </c>
+      <c r="C92">
+        <v>0.7354969433046135</v>
+      </c>
+      <c r="D92">
+        <v>0.2594135926456329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0.04622441625662277</v>
+      </c>
+      <c r="C93">
+        <v>0.04301859454746731</v>
+      </c>
+      <c r="D93">
+        <v>0.91075698919591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0.03214683561758725</v>
+      </c>
+      <c r="C94">
+        <v>0.1896657932051921</v>
+      </c>
+      <c r="D94">
+        <v>0.7781873711772207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0.7891980013382583</v>
+      </c>
+      <c r="C95">
+        <v>0.0896002138968907</v>
+      </c>
+      <c r="D95">
+        <v>0.1212017847648509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>0.02166277694464757</v>
+      </c>
+      <c r="C96">
+        <v>0.957602735948323</v>
+      </c>
+      <c r="D96">
+        <v>0.02073448710702935</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0.08044370256423208</v>
+      </c>
+      <c r="C97">
+        <v>0.4948458249745556</v>
+      </c>
+      <c r="D97">
+        <v>0.4247104724612122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>0.167510478627035</v>
+      </c>
+      <c r="C98">
+        <v>0.6376365052982982</v>
+      </c>
+      <c r="D98">
+        <v>0.1948530160746668</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0.04708144504559634</v>
+      </c>
+      <c r="C99">
+        <v>0.6574222932799488</v>
+      </c>
+      <c r="D99">
+        <v>0.2954962616744549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.09078149795081453</v>
+      </c>
+      <c r="C100">
+        <v>0.0930660911840353</v>
+      </c>
+      <c r="D100">
+        <v>0.8161524108651502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.003444423401021761</v>
+      </c>
+      <c r="C101">
+        <v>0.9367864477236858</v>
+      </c>
+      <c r="D101">
+        <v>0.0597691288752924</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.2955695279681235</v>
+      </c>
+      <c r="C102">
+        <v>0.6627436441813244</v>
+      </c>
+      <c r="D102">
+        <v>0.04168682785055217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>0.01683220900383696</v>
+      </c>
+      <c r="C103">
+        <v>0.1293015055420498</v>
+      </c>
+      <c r="D103">
+        <v>0.8538662854541132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>0.05394960487113706</v>
+      </c>
+      <c r="C104">
+        <v>0.5687086250062173</v>
+      </c>
+      <c r="D104">
+        <v>0.3773417701226455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>0.01392873719510718</v>
+      </c>
+      <c r="C105">
+        <v>0.01362982349444593</v>
+      </c>
+      <c r="D105">
+        <v>0.9724414393104469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>0.2483432547233715</v>
+      </c>
+      <c r="C106">
+        <v>0.6199560817017218</v>
+      </c>
+      <c r="D106">
+        <v>0.1317006635749068</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>0.09173030734676177</v>
+      </c>
+      <c r="C107">
+        <v>0.1031033818128234</v>
+      </c>
+      <c r="D107">
+        <v>0.8051663108404148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0.08343847618129653</v>
+      </c>
+      <c r="C108">
+        <v>0.08450633599793109</v>
+      </c>
+      <c r="D108">
+        <v>0.8320551878207724</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0.005020422274783834</v>
+      </c>
+      <c r="C109">
+        <v>0.5812000513161882</v>
+      </c>
+      <c r="D109">
+        <v>0.4137795264090279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>0.6456395836102082</v>
+      </c>
+      <c r="C110">
+        <v>0.1693612350401098</v>
+      </c>
+      <c r="D110">
+        <v>0.1849991813496819</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0.01877779155079396</v>
+      </c>
+      <c r="C111">
+        <v>0.3419915335969764</v>
+      </c>
+      <c r="D111">
+        <v>0.6392306748522297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0.005366206244808571</v>
+      </c>
+      <c r="C112">
+        <v>0.5687983633497183</v>
+      </c>
+      <c r="D112">
+        <v>0.4258354304054731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>0.0052684762718866</v>
+      </c>
+      <c r="C113">
+        <v>0.6698115202238658</v>
+      </c>
+      <c r="D113">
+        <v>0.3249200035042475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>0.01988535348082669</v>
+      </c>
+      <c r="C114">
+        <v>0.02331123535207555</v>
+      </c>
+      <c r="D114">
+        <v>0.9568034111670978</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>0.006996036689974005</v>
+      </c>
+      <c r="C115">
+        <v>0.1904433586848362</v>
+      </c>
+      <c r="D115">
+        <v>0.8025606046251899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>0.007602226899579415</v>
+      </c>
+      <c r="C116">
+        <v>0.7600421253629971</v>
+      </c>
+      <c r="D116">
+        <v>0.2323556477374235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>0.09603847404136913</v>
+      </c>
+      <c r="C117">
+        <v>0.02563094431868238</v>
+      </c>
+      <c r="D117">
+        <v>0.8783305816399485</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>0.01898007593374032</v>
+      </c>
+      <c r="C118">
+        <v>0.01898532901320554</v>
+      </c>
+      <c r="D118">
+        <v>0.9620345950530541</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>0.8547507914346669</v>
+      </c>
+      <c r="C119">
+        <v>0.004442952549044537</v>
+      </c>
+      <c r="D119">
+        <v>0.1408062560162886</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>0.03800884831344376</v>
+      </c>
+      <c r="C120">
+        <v>0.9204489447236086</v>
+      </c>
+      <c r="D120">
+        <v>0.04154220696294767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>0.06676953831172955</v>
+      </c>
+      <c r="C121">
+        <v>0.07091881413386601</v>
+      </c>
+      <c r="D121">
+        <v>0.8623116475544045</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>0.03906870834779243</v>
+      </c>
+      <c r="C122">
+        <v>0.04244604649930837</v>
+      </c>
+      <c r="D122">
+        <v>0.9184852451528991</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>0.1935927870310849</v>
+      </c>
+      <c r="C123">
+        <v>0.6094054941151047</v>
+      </c>
+      <c r="D123">
+        <v>0.1970017188538105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>0.004585804301363931</v>
+      </c>
+      <c r="C124">
+        <v>0.9894564838713734</v>
+      </c>
+      <c r="D124">
+        <v>0.005957711827262653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>0.1145599534502958</v>
+      </c>
+      <c r="C125">
+        <v>0.7317405769776719</v>
+      </c>
+      <c r="D125">
+        <v>0.1536994695720322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>0.005026616165365531</v>
+      </c>
+      <c r="C126">
+        <v>0.6324547485597403</v>
+      </c>
+      <c r="D126">
+        <v>0.3625186352748941</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>0.02207006241285248</v>
+      </c>
+      <c r="C127">
+        <v>0.5843954150389451</v>
+      </c>
+      <c r="D127">
+        <v>0.3935345225482024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>0.01235989881146611</v>
+      </c>
+      <c r="C128">
+        <v>0.8448953810250011</v>
+      </c>
+      <c r="D128">
+        <v>0.1427447201635329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>0.07672147282903719</v>
+      </c>
+      <c r="C129">
+        <v>0.8578298969616931</v>
+      </c>
+      <c r="D129">
+        <v>0.06544863020926976</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>0.08349263099843368</v>
+      </c>
+      <c r="C130">
+        <v>0.08528894327772357</v>
+      </c>
+      <c r="D130">
+        <v>0.8312184257238427</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>0.007154462469747117</v>
+      </c>
+      <c r="C131">
+        <v>0.6064804891750993</v>
+      </c>
+      <c r="D131">
+        <v>0.3863650483551535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>0.02737863972088016</v>
+      </c>
+      <c r="C132">
+        <v>0.02689872310486105</v>
+      </c>
+      <c r="D132">
+        <v>0.9457226371742588</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>0.1149326439090076</v>
+      </c>
+      <c r="C133">
+        <v>0.1180015232376291</v>
+      </c>
+      <c r="D133">
+        <v>0.7670658328533633</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>0.2453199582024595</v>
+      </c>
+      <c r="C134">
+        <v>0.06287506193517703</v>
+      </c>
+      <c r="D134">
+        <v>0.6918049798623636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>0.007962318462158181</v>
+      </c>
+      <c r="C135">
+        <v>0.1996059973522131</v>
+      </c>
+      <c r="D135">
+        <v>0.7924316841856287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>0.03512562991599896</v>
+      </c>
+      <c r="C136">
+        <v>0.6822168042470084</v>
+      </c>
+      <c r="D136">
+        <v>0.2826575658369927</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>0.03830384327661285</v>
+      </c>
+      <c r="C137">
+        <v>0.3406599879215135</v>
+      </c>
+      <c r="D137">
+        <v>0.6210361688018736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>0.1119170102568128</v>
+      </c>
+      <c r="C138">
+        <v>0.04404614268471191</v>
+      </c>
+      <c r="D138">
+        <v>0.8440368470584753</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>0.07125297846474271</v>
+      </c>
+      <c r="C139">
+        <v>0.07216699188626968</v>
+      </c>
+      <c r="D139">
+        <v>0.8565800296489877</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.03135651449208901</v>
+      </c>
+      <c r="C140">
+        <v>0.03255517477650688</v>
+      </c>
+      <c r="D140">
+        <v>0.9360883107314041</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.01927988580953042</v>
+      </c>
+      <c r="C141">
+        <v>0.0182772460517597</v>
+      </c>
+      <c r="D141">
+        <v>0.9624428681387099</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>0.007366488148775135</v>
+      </c>
+      <c r="C142">
+        <v>0.1495999500514333</v>
+      </c>
+      <c r="D142">
+        <v>0.8430335617997916</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>0.02495529073484567</v>
+      </c>
+      <c r="C143">
+        <v>0.02559736485199767</v>
+      </c>
+      <c r="D143">
+        <v>0.9494473444131566</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>0.04197879168993796</v>
+      </c>
+      <c r="C144">
+        <v>0.04720486255439109</v>
+      </c>
+      <c r="D144">
+        <v>0.9108163457556709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>0.01054545121462719</v>
+      </c>
+      <c r="C145">
+        <v>0.01105442121413934</v>
+      </c>
+      <c r="D145">
+        <v>0.9784001275712335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>0.01644985822413243</v>
+      </c>
+      <c r="C146">
+        <v>0.1086532889386285</v>
+      </c>
+      <c r="D146">
+        <v>0.8748968528372391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>0.07657767627533926</v>
+      </c>
+      <c r="C147">
+        <v>0.06814568019144535</v>
+      </c>
+      <c r="D147">
+        <v>0.8552766435332155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>0.1017622970991004</v>
+      </c>
+      <c r="C148">
+        <v>0.007542236747985868</v>
+      </c>
+      <c r="D148">
+        <v>0.8906954661529137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>0.000892954974130895</v>
+      </c>
+      <c r="C149">
+        <v>0.9981273010497853</v>
+      </c>
+      <c r="D149">
+        <v>0.0009797439760838387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>0.1878232772435642</v>
+      </c>
+      <c r="C150">
+        <v>0.6023236818959791</v>
+      </c>
+      <c r="D150">
+        <v>0.2098530408604568</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>0.4391902051957566</v>
+      </c>
+      <c r="C151">
+        <v>0.3749132730539711</v>
+      </c>
+      <c r="D151">
+        <v>0.1858965217502722</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>0.02086623605384381</v>
+      </c>
+      <c r="C152">
+        <v>0.02047498725525562</v>
+      </c>
+      <c r="D152">
+        <v>0.9586587766909005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>0.06835198052334412</v>
+      </c>
+      <c r="C153">
+        <v>0.06523371773067711</v>
+      </c>
+      <c r="D153">
+        <v>0.8664143017459788</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>0.06004122298159414</v>
+      </c>
+      <c r="C154">
+        <v>0.0598140746947174</v>
+      </c>
+      <c r="D154">
+        <v>0.8801447023236885</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>0.008854422959651392</v>
+      </c>
+      <c r="C155">
+        <v>0.008614843985641189</v>
+      </c>
+      <c r="D155">
+        <v>0.9825307330547075</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>0.08703970138752123</v>
+      </c>
+      <c r="C156">
+        <v>0.4027904948782642</v>
+      </c>
+      <c r="D156">
+        <v>0.5101698037342145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>0.1149326439090076</v>
+      </c>
+      <c r="C157">
+        <v>0.1180015232376291</v>
+      </c>
+      <c r="D157">
+        <v>0.7670658328533633</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>0.1666770858170921</v>
+      </c>
+      <c r="C158">
+        <v>0.1705266952560353</v>
+      </c>
+      <c r="D158">
+        <v>0.6627962189268726</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>0.005217053618199544</v>
+      </c>
+      <c r="C159">
+        <v>0.1836481006277267</v>
+      </c>
+      <c r="D159">
+        <v>0.8111348457540738</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>0.01463206707491148</v>
+      </c>
+      <c r="C160">
+        <v>0.1879057306925947</v>
+      </c>
+      <c r="D160">
+        <v>0.7974622022324938</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>0.007308572690715509</v>
+      </c>
+      <c r="C161">
+        <v>0.809239203527593</v>
+      </c>
+      <c r="D161">
+        <v>0.1834522237816915</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>0.801305567419684</v>
+      </c>
+      <c r="C162">
+        <v>0.1884949694082911</v>
+      </c>
+      <c r="D162">
+        <v>0.01019946317202488</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>0.7214437191416894</v>
+      </c>
+      <c r="C163">
+        <v>0.2474110257573694</v>
+      </c>
+      <c r="D163">
+        <v>0.03114525510094125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>0.302557488402308</v>
+      </c>
+      <c r="C164">
+        <v>0.6431765884069586</v>
+      </c>
+      <c r="D164">
+        <v>0.05426592319073348</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>0.0431528316169578</v>
+      </c>
+      <c r="C165">
+        <v>0.4487737075963265</v>
+      </c>
+      <c r="D165">
+        <v>0.5080734607867157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>0.06818830267782265</v>
+      </c>
+      <c r="C166">
+        <v>0.07533248177835163</v>
+      </c>
+      <c r="D166">
+        <v>0.8564792155438257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>0.006010031979877159</v>
+      </c>
+      <c r="C167">
+        <v>0.4834750374339396</v>
+      </c>
+      <c r="D167">
+        <v>0.5105149305861832</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>0.003943236687198128</v>
+      </c>
+      <c r="C168">
+        <v>0.6284741597945926</v>
+      </c>
+      <c r="D168">
+        <v>0.3675826035182092</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>0.2817951584582726</v>
+      </c>
+      <c r="C169">
+        <v>0.02587954986799348</v>
+      </c>
+      <c r="D169">
+        <v>0.692325291673734</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>0.1670039566069445</v>
+      </c>
+      <c r="C170">
+        <v>0.1685797730528127</v>
+      </c>
+      <c r="D170">
+        <v>0.6644162703402428</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>0.00551254245261066</v>
+      </c>
+      <c r="C171">
+        <v>0.6423094559361975</v>
+      </c>
+      <c r="D171">
+        <v>0.352178001611192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>0.3895722251422096</v>
+      </c>
+      <c r="C172">
+        <v>0.3909201125525441</v>
+      </c>
+      <c r="D172">
+        <v>0.2195076623052463</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>0.05360968564748603</v>
+      </c>
+      <c r="C173">
+        <v>0.5603462402525599</v>
+      </c>
+      <c r="D173">
+        <v>0.3860440740999541</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>0.05577136709131133</v>
+      </c>
+      <c r="C174">
+        <v>0.4741772233636532</v>
+      </c>
+      <c r="D174">
+        <v>0.4700514095450355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>0.207693555277725</v>
+      </c>
+      <c r="C175">
+        <v>0.6860784033246661</v>
+      </c>
+      <c r="D175">
+        <v>0.1062280413976089</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>0.03047924479798881</v>
+      </c>
+      <c r="C176">
+        <v>0.0290609990610912</v>
+      </c>
+      <c r="D176">
+        <v>0.94045975614092</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>0.6558705094965316</v>
+      </c>
+      <c r="C177">
+        <v>0.007439346364274081</v>
+      </c>
+      <c r="D177">
+        <v>0.3366901441391943</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>0.02966486674311762</v>
+      </c>
+      <c r="C178">
+        <v>0.5362713363540482</v>
+      </c>
+      <c r="D178">
+        <v>0.4340637969028342</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>0.04319908133050025</v>
+      </c>
+      <c r="C179">
+        <v>0.9055771205891607</v>
+      </c>
+      <c r="D179">
+        <v>0.05122379808033905</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>0.06095773040521211</v>
+      </c>
+      <c r="C180">
+        <v>0.0504807936157724</v>
+      </c>
+      <c r="D180">
+        <v>0.8885614759790156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>0.05333025443038015</v>
+      </c>
+      <c r="C181">
+        <v>0.0448414117216193</v>
+      </c>
+      <c r="D181">
+        <v>0.9018283338480005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>0.03084219474624306</v>
+      </c>
+      <c r="C182">
+        <v>0.9442685922815273</v>
+      </c>
+      <c r="D182">
+        <v>0.02488921297222967</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>0.2789199360072783</v>
+      </c>
+      <c r="C183">
+        <v>0.02448194217657946</v>
+      </c>
+      <c r="D183">
+        <v>0.6965981218161423</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>0.00381836078637074</v>
+      </c>
+      <c r="C184">
+        <v>0.620323746584212</v>
+      </c>
+      <c r="D184">
+        <v>0.3758578926294173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>0.009974515755666253</v>
+      </c>
+      <c r="C185">
+        <v>0.6463876898450722</v>
+      </c>
+      <c r="D185">
+        <v>0.3436377943992614</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>0.127938542778071</v>
+      </c>
+      <c r="C186">
+        <v>0.1142807778147198</v>
+      </c>
+      <c r="D186">
+        <v>0.7577806794072091</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>0.06629385551905274</v>
+      </c>
+      <c r="C187">
+        <v>0.768267282368577</v>
+      </c>
+      <c r="D187">
+        <v>0.1654388621123704</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>0.04675647501913451</v>
+      </c>
+      <c r="C188">
+        <v>0.05531902293370577</v>
+      </c>
+      <c r="D188">
+        <v>0.8979245020471597</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>0.005280085665581019</v>
+      </c>
+      <c r="C189">
+        <v>0.4816382133101927</v>
+      </c>
+      <c r="D189">
+        <v>0.5130817010242262</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>0.02357670463698591</v>
+      </c>
+      <c r="C190">
+        <v>0.02419849290037281</v>
+      </c>
+      <c r="D190">
+        <v>0.9522248024626413</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>0.01699940866324842</v>
+      </c>
+      <c r="C191">
+        <v>0.01868358818680683</v>
+      </c>
+      <c r="D191">
+        <v>0.9643170031499447</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>0.3297227567687236</v>
+      </c>
+      <c r="C192">
+        <v>0.08972895890672561</v>
+      </c>
+      <c r="D192">
+        <v>0.5805482843245507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C193">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D193">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>0.04692703376936126</v>
+      </c>
+      <c r="C194">
+        <v>0.05746104381590438</v>
+      </c>
+      <c r="D194">
+        <v>0.8956119224147343</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>0.1726076351783968</v>
+      </c>
+      <c r="C195">
+        <v>0.003722744539086339</v>
+      </c>
+      <c r="D195">
+        <v>0.8236696202825169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>0.6246653081385265</v>
+      </c>
+      <c r="C196">
+        <v>0.02519633078184831</v>
+      </c>
+      <c r="D196">
+        <v>0.3501383610796253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>0.7365185384166544</v>
+      </c>
+      <c r="C197">
+        <v>0.00762512074944439</v>
+      </c>
+      <c r="D197">
+        <v>0.2558563408339013</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>0.03922997732038596</v>
+      </c>
+      <c r="C198">
+        <v>0.04007118998765115</v>
+      </c>
+      <c r="D198">
+        <v>0.920698832691963</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>0.02357670463698591</v>
+      </c>
+      <c r="C199">
+        <v>0.02419849290037281</v>
+      </c>
+      <c r="D199">
+        <v>0.9522248024626413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>0.008352885112823762</v>
+      </c>
+      <c r="C200">
+        <v>0.5637881235956598</v>
+      </c>
+      <c r="D200">
+        <v>0.4278589912915166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>0.05702293004054769</v>
+      </c>
+      <c r="C201">
+        <v>0.05983435794813557</v>
+      </c>
+      <c r="D201">
+        <v>0.8831427120113167</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>0.009755347267220703</v>
+      </c>
+      <c r="C202">
+        <v>0.01123824425748227</v>
+      </c>
+      <c r="D202">
+        <v>0.979006408475297</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>0.3684733169867175</v>
+      </c>
+      <c r="C203">
+        <v>0.5783805254166177</v>
+      </c>
+      <c r="D203">
+        <v>0.05314615759666481</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>0.05635401502908347</v>
+      </c>
+      <c r="C204">
+        <v>0.04987133277430522</v>
+      </c>
+      <c r="D204">
+        <v>0.8937746521966113</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>0.9176710158580617</v>
+      </c>
+      <c r="C205">
+        <v>0.0364563074969491</v>
+      </c>
+      <c r="D205">
+        <v>0.04587267664498922</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>0.02852120964478032</v>
+      </c>
+      <c r="C206">
+        <v>0.3818818187721883</v>
+      </c>
+      <c r="D206">
+        <v>0.5895969715830314</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>0.1670039566069445</v>
+      </c>
+      <c r="C207">
+        <v>0.1685797730528127</v>
+      </c>
+      <c r="D207">
+        <v>0.6644162703402428</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>0.02769938437061096</v>
+      </c>
+      <c r="C208">
+        <v>0.03408087716004016</v>
+      </c>
+      <c r="D208">
+        <v>0.9382197384693488</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>0.02495257014360108</v>
+      </c>
+      <c r="C209">
+        <v>0.02500885903253205</v>
+      </c>
+      <c r="D209">
+        <v>0.9500385708238668</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>0.024356985999925</v>
+      </c>
+      <c r="C210">
+        <v>0.02312817789074516</v>
+      </c>
+      <c r="D210">
+        <v>0.9525148361093297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>0.007752311309909121</v>
+      </c>
+      <c r="C211">
+        <v>0.4979597834440441</v>
+      </c>
+      <c r="D211">
+        <v>0.4942879052460468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>0.02114574586630306</v>
+      </c>
+      <c r="C212">
+        <v>0.02789164767260964</v>
+      </c>
+      <c r="D212">
+        <v>0.9509626064610872</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>0.02807471041934759</v>
+      </c>
+      <c r="C213">
+        <v>0.03049847717462294</v>
+      </c>
+      <c r="D213">
+        <v>0.9414268124060294</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>0.06040316987747141</v>
+      </c>
+      <c r="C214">
+        <v>0.06702389979637517</v>
+      </c>
+      <c r="D214">
+        <v>0.8725729303261534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>0.005500735610701146</v>
+      </c>
+      <c r="C215">
+        <v>0.4791612682185551</v>
+      </c>
+      <c r="D215">
+        <v>0.5153379961707438</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>0.6319870860074273</v>
+      </c>
+      <c r="C216">
+        <v>0.1695222779141009</v>
+      </c>
+      <c r="D216">
+        <v>0.1984906360784719</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C217">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D217">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>0.9991737127421744</v>
+      </c>
+      <c r="C218">
+        <v>0.0004173552422834027</v>
+      </c>
+      <c r="D218">
+        <v>0.0004089320155422972</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219">
+        <v>0.02054357791943338</v>
+      </c>
+      <c r="C219">
+        <v>0.6048453041259132</v>
+      </c>
+      <c r="D219">
+        <v>0.3746111179546535</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220">
+        <v>0.01862939557498645</v>
+      </c>
+      <c r="C220">
+        <v>0.734260827271274</v>
+      </c>
+      <c r="D220">
+        <v>0.2471097771537396</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221">
+        <v>0.01756959838202918</v>
+      </c>
+      <c r="C221">
+        <v>0.712999243468072</v>
+      </c>
+      <c r="D221">
+        <v>0.269431158149899</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222">
+        <v>0.1935927870310849</v>
+      </c>
+      <c r="C222">
+        <v>0.6094054941151047</v>
+      </c>
+      <c r="D222">
+        <v>0.1970017188538105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223">
+        <v>0.02464858353375366</v>
+      </c>
+      <c r="C223">
+        <v>0.03219559998901993</v>
+      </c>
+      <c r="D223">
+        <v>0.9431558164772265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224">
+        <v>0.184091824070949</v>
+      </c>
+      <c r="C224">
+        <v>0.003861227024928377</v>
+      </c>
+      <c r="D224">
+        <v>0.8120469489041227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225">
+        <v>0.02140562136832216</v>
+      </c>
+      <c r="C225">
+        <v>0.7189368901479944</v>
+      </c>
+      <c r="D225">
+        <v>0.2596574884836834</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226">
+        <v>0.02440243367028779</v>
+      </c>
+      <c r="C226">
+        <v>0.9445616216565694</v>
+      </c>
+      <c r="D226">
+        <v>0.0310359446731427</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227">
+        <v>0.1523397200429054</v>
+      </c>
+      <c r="C227">
+        <v>0.3273557415799683</v>
+      </c>
+      <c r="D227">
+        <v>0.5203045383771263</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228">
+        <v>0.1113278185648166</v>
+      </c>
+      <c r="C228">
+        <v>0.1191545508019386</v>
+      </c>
+      <c r="D228">
+        <v>0.7695176306332447</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229">
+        <v>0.8274157513850161</v>
+      </c>
+      <c r="C229">
+        <v>0.1241505885445301</v>
+      </c>
+      <c r="D229">
+        <v>0.04843366007045385</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230">
+        <v>0.1034702534644504</v>
+      </c>
+      <c r="C230">
+        <v>0.09757871213900149</v>
+      </c>
+      <c r="D230">
+        <v>0.7989510343965481</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231">
+        <v>0.1203282081141132</v>
+      </c>
+      <c r="C231">
+        <v>0.1411403390217709</v>
+      </c>
+      <c r="D231">
+        <v>0.7385314528641159</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232">
+        <v>0.18371600604211</v>
+      </c>
+      <c r="C232">
+        <v>0.01839964594094435</v>
+      </c>
+      <c r="D232">
+        <v>0.7978843480169457</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233">
+        <v>0.04143733932008565</v>
+      </c>
+      <c r="C233">
+        <v>0.5813659928751724</v>
+      </c>
+      <c r="D233">
+        <v>0.3771966678047419</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234">
+        <v>0.01364785189735068</v>
+      </c>
+      <c r="C234">
+        <v>0.01506117545084132</v>
+      </c>
+      <c r="D234">
+        <v>0.9712909726518081</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235">
+        <v>0.1200885157868764</v>
+      </c>
+      <c r="C235">
+        <v>0.01550432160766887</v>
+      </c>
+      <c r="D235">
+        <v>0.8644071626054547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236">
+        <v>0.02719406838375698</v>
+      </c>
+      <c r="C236">
+        <v>0.02988092140037489</v>
+      </c>
+      <c r="D236">
+        <v>0.9429250102158682</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237">
+        <v>0.03351165786024853</v>
+      </c>
+      <c r="C237">
+        <v>0.03308289550774231</v>
+      </c>
+      <c r="D237">
+        <v>0.9334054466320092</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238">
+        <v>0.01887802830478973</v>
+      </c>
+      <c r="C238">
+        <v>0.4957660854512839</v>
+      </c>
+      <c r="D238">
+        <v>0.4853558862439264</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239">
+        <v>0.01007268357620751</v>
+      </c>
+      <c r="C239">
+        <v>0.009007473650614986</v>
+      </c>
+      <c r="D239">
+        <v>0.9809198427731776</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240">
+        <v>0.007347002605152208</v>
+      </c>
+      <c r="C240">
+        <v>0.3539305649523901</v>
+      </c>
+      <c r="D240">
+        <v>0.6387224324424576</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241">
+        <v>0.02663787011703395</v>
+      </c>
+      <c r="C241">
+        <v>0.6207208900387932</v>
+      </c>
+      <c r="D241">
+        <v>0.3526412398441728</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242">
+        <v>0.05217506064490306</v>
+      </c>
+      <c r="C242">
+        <v>0.05269516554286981</v>
+      </c>
+      <c r="D242">
+        <v>0.8951297738122271</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243">
+        <v>0.08595662244989538</v>
+      </c>
+      <c r="C243">
+        <v>0.09962733999906662</v>
+      </c>
+      <c r="D243">
+        <v>0.814416037551038</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244">
+        <v>0.008922975927926711</v>
+      </c>
+      <c r="C244">
+        <v>0.01054489805056391</v>
+      </c>
+      <c r="D244">
+        <v>0.9805321260215093</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245">
+        <v>0.06365317533735644</v>
+      </c>
+      <c r="C245">
+        <v>0.9292998613870357</v>
+      </c>
+      <c r="D245">
+        <v>0.007046963275607923</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246">
+        <v>0.5238254224521441</v>
+      </c>
+      <c r="C246">
+        <v>0.4642061052818797</v>
+      </c>
+      <c r="D246">
+        <v>0.01196847226597603</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247">
+        <v>0.01862196706048723</v>
+      </c>
+      <c r="C247">
+        <v>0.01936972769655117</v>
+      </c>
+      <c r="D247">
+        <v>0.9620083052429615</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>0.3217211190218997</v>
+      </c>
+      <c r="C248">
+        <v>0.06857655595101785</v>
+      </c>
+      <c r="D248">
+        <v>0.6097023250270824</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>0.06544664667715526</v>
+      </c>
+      <c r="C249">
+        <v>0.09644971012502725</v>
+      </c>
+      <c r="D249">
+        <v>0.8381036431978175</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>0.3564682921927381</v>
+      </c>
+      <c r="C250">
+        <v>0.04485268205959037</v>
+      </c>
+      <c r="D250">
+        <v>0.5986790257476715</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>0.01988619920069837</v>
+      </c>
+      <c r="C251">
+        <v>0.4944066046461847</v>
+      </c>
+      <c r="D251">
+        <v>0.485707196153117</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>0.01934929714002803</v>
+      </c>
+      <c r="C252">
+        <v>0.02123071960237319</v>
+      </c>
+      <c r="D252">
+        <v>0.9594199832575988</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>0.1369675754103792</v>
+      </c>
+      <c r="C253">
+        <v>0.5430021402567728</v>
+      </c>
+      <c r="D253">
+        <v>0.3200302843328479</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>0.005534370621165154</v>
+      </c>
+      <c r="C254">
+        <v>0.6791724549802715</v>
+      </c>
+      <c r="D254">
+        <v>0.3152931743985634</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>0.7085024642344556</v>
+      </c>
+      <c r="C255">
+        <v>0.2788016819363119</v>
+      </c>
+      <c r="D255">
+        <v>0.01269585382923244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>0.02614529864514943</v>
+      </c>
+      <c r="C256">
+        <v>0.0274159288669438</v>
+      </c>
+      <c r="D256">
+        <v>0.9464387724879068</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>0.0466285777500083</v>
+      </c>
+      <c r="C257">
+        <v>0.04625176579744016</v>
+      </c>
+      <c r="D257">
+        <v>0.9071196564525515</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>0.1670039566069445</v>
+      </c>
+      <c r="C258">
+        <v>0.1685797730528127</v>
+      </c>
+      <c r="D258">
+        <v>0.6644162703402428</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259">
+        <v>0.006756451682315123</v>
+      </c>
+      <c r="C259">
+        <v>0.8825173004097476</v>
+      </c>
+      <c r="D259">
+        <v>0.1107262479079373</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260">
+        <v>0.1122643480474684</v>
+      </c>
+      <c r="C260">
+        <v>0.1137238133668311</v>
+      </c>
+      <c r="D260">
+        <v>0.7740118385857004</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261">
+        <v>0.05582906922805812</v>
+      </c>
+      <c r="C261">
+        <v>0.04948083450414979</v>
+      </c>
+      <c r="D261">
+        <v>0.8946900962677921</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262">
+        <v>0.0228988155150993</v>
+      </c>
+      <c r="C262">
+        <v>0.02398736754716614</v>
+      </c>
+      <c r="D262">
+        <v>0.9531138169377346</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263">
+        <v>0.006026684263240079</v>
+      </c>
+      <c r="C263">
+        <v>0.08414994126106042</v>
+      </c>
+      <c r="D263">
+        <v>0.9098233744756996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264">
+        <v>0.005490084500091596</v>
+      </c>
+      <c r="C264">
+        <v>0.9872240512694471</v>
+      </c>
+      <c r="D264">
+        <v>0.007285864230461323</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265">
+        <v>0.02936189682540899</v>
+      </c>
+      <c r="C265">
+        <v>0.02892769549561506</v>
+      </c>
+      <c r="D265">
+        <v>0.941710407678976</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266">
+        <v>0.4643069989687997</v>
+      </c>
+      <c r="C266">
+        <v>0.01234591135697065</v>
+      </c>
+      <c r="D266">
+        <v>0.5233470896742296</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267">
+        <v>0.2619710975607339</v>
+      </c>
+      <c r="C267">
+        <v>0.04326140969391722</v>
+      </c>
+      <c r="D267">
+        <v>0.6947674927453488</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268">
+        <v>0.02624593052798018</v>
+      </c>
+      <c r="C268">
+        <v>0.1706599845317883</v>
+      </c>
+      <c r="D268">
+        <v>0.8030940849402315</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269">
+        <v>0.112887766617181</v>
+      </c>
+      <c r="C269">
+        <v>0.1302453354964702</v>
+      </c>
+      <c r="D269">
+        <v>0.7568668978863489</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270">
+        <v>0.02066392940846228</v>
+      </c>
+      <c r="C270">
+        <v>0.4784950583795331</v>
+      </c>
+      <c r="D270">
+        <v>0.5008410122120046</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271">
+        <v>0.0135564187395647</v>
+      </c>
+      <c r="C271">
+        <v>0.7358353563115584</v>
+      </c>
+      <c r="D271">
+        <v>0.250608224948877</v>
       </c>
     </row>
   </sheetData>
